--- a/data/eacl_2024/new_data/inputs.xlsx
+++ b/data/eacl_2024/new_data/inputs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuwei/Documents/eacl-2024-miniconf/data/eacl_2024/new_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE4326D-AB63-E948-873D-29EBB0D43156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Tutorials Schedule" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
     <sheet name="Breaks Schedule" sheetId="7" r:id="rId7"/>
     <sheet name="Affinity Groups &amp; BoF" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -4053,11 +4047,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4134,21 +4128,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4186,7 +4172,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -4220,7 +4206,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4255,10 +4240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4431,14 +4415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4467,7 +4451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>45372</v>
       </c>
@@ -4496,7 +4480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>45372</v>
       </c>
@@ -4525,7 +4509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>45372</v>
       </c>
@@ -4554,7 +4538,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>45372</v>
       </c>
@@ -4583,7 +4567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>45372</v>
       </c>
@@ -4618,14 +4602,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4663,7 +4647,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>45372</v>
       </c>
@@ -4701,7 +4685,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>45372</v>
       </c>
@@ -4736,7 +4720,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>45372</v>
       </c>
@@ -4771,7 +4755,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>45372</v>
       </c>
@@ -4809,7 +4793,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>45372</v>
       </c>
@@ -4844,7 +4828,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>45372</v>
       </c>
@@ -4876,7 +4860,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>45372</v>
       </c>
@@ -4911,7 +4895,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>45372</v>
       </c>
@@ -4946,7 +4930,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>45373</v>
       </c>
@@ -4981,7 +4965,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>45373</v>
       </c>
@@ -5016,7 +5000,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>45373</v>
       </c>
@@ -5051,7 +5035,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>45373</v>
       </c>
@@ -5089,7 +5073,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>45373</v>
       </c>
@@ -5124,7 +5108,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>45373</v>
       </c>
@@ -5162,7 +5146,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>45373</v>
       </c>
@@ -5200,7 +5184,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>45373</v>
       </c>
@@ -5235,7 +5219,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>45373</v>
       </c>
@@ -5273,7 +5257,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>45373</v>
       </c>
@@ -5311,7 +5295,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>45373</v>
       </c>
@@ -5346,7 +5330,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>45373</v>
       </c>
@@ -5383,40 +5367,40 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="L5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="L6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="L7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="L8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="L9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="L10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="L11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="L12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="L13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="L14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="L15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="L16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="L17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="L18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="L19" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="L20" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="L21" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="L4" r:id="rId3"/>
+    <hyperlink ref="L5" r:id="rId4"/>
+    <hyperlink ref="L6" r:id="rId5"/>
+    <hyperlink ref="L7" r:id="rId6"/>
+    <hyperlink ref="L8" r:id="rId7"/>
+    <hyperlink ref="L9" r:id="rId8"/>
+    <hyperlink ref="L10" r:id="rId9"/>
+    <hyperlink ref="L11" r:id="rId10"/>
+    <hyperlink ref="L12" r:id="rId11"/>
+    <hyperlink ref="L13" r:id="rId12"/>
+    <hyperlink ref="L14" r:id="rId13"/>
+    <hyperlink ref="L15" r:id="rId14"/>
+    <hyperlink ref="L16" r:id="rId15"/>
+    <hyperlink ref="L17" r:id="rId16"/>
+    <hyperlink ref="L18" r:id="rId17"/>
+    <hyperlink ref="L19" r:id="rId18"/>
+    <hyperlink ref="L20" r:id="rId19"/>
+    <hyperlink ref="L21" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5454,7 +5438,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>45369</v>
       </c>
@@ -5489,7 +5473,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>45369</v>
       </c>
@@ -5524,7 +5508,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>45370</v>
       </c>
@@ -5559,7 +5543,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>45370</v>
       </c>
@@ -5594,7 +5578,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>45371</v>
       </c>
@@ -5629,7 +5613,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>45371</v>
       </c>
@@ -5664,7 +5648,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>45371</v>
       </c>
@@ -5705,18 +5689,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5742,7 +5722,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>45369</v>
       </c>
@@ -5768,7 +5748,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>45369</v>
       </c>
@@ -5794,7 +5774,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>45369</v>
       </c>
@@ -5820,7 +5800,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>45369</v>
       </c>
@@ -5846,7 +5826,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>45369</v>
       </c>
@@ -5872,7 +5852,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>45369</v>
       </c>
@@ -5898,7 +5878,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>45369</v>
       </c>
@@ -5924,7 +5904,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>45369</v>
       </c>
@@ -5950,7 +5930,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>45369</v>
       </c>
@@ -5976,7 +5956,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>45369</v>
       </c>
@@ -6002,7 +5982,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>45369</v>
       </c>
@@ -6028,7 +6008,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>45369</v>
       </c>
@@ -6054,7 +6034,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>45369</v>
       </c>
@@ -6080,7 +6060,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>45369</v>
       </c>
@@ -6106,7 +6086,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>45369</v>
       </c>
@@ -6132,7 +6112,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>45369</v>
       </c>
@@ -6158,7 +6138,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>45369</v>
       </c>
@@ -6184,7 +6164,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>45369</v>
       </c>
@@ -6210,7 +6190,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>45369</v>
       </c>
@@ -6236,7 +6216,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>45369</v>
       </c>
@@ -6262,7 +6242,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>45369</v>
       </c>
@@ -6288,7 +6268,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>45369</v>
       </c>
@@ -6314,7 +6294,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>45369</v>
       </c>
@@ -6340,7 +6320,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>45369</v>
       </c>
@@ -6366,7 +6346,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>45369</v>
       </c>
@@ -6392,7 +6372,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>45369</v>
       </c>
@@ -6418,7 +6398,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>45369</v>
       </c>
@@ -6444,7 +6424,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>45369</v>
       </c>
@@ -6470,7 +6450,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>45369</v>
       </c>
@@ -6496,7 +6476,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>45369</v>
       </c>
@@ -6522,7 +6502,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>45369</v>
       </c>
@@ -6548,7 +6528,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>45369</v>
       </c>
@@ -6574,7 +6554,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>45369</v>
       </c>
@@ -6600,7 +6580,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>45369</v>
       </c>
@@ -6626,7 +6606,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>45369</v>
       </c>
@@ -6652,7 +6632,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>45369</v>
       </c>
@@ -6678,7 +6658,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>45369</v>
       </c>
@@ -6704,7 +6684,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
         <v>45369</v>
       </c>
@@ -6730,7 +6710,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>45369</v>
       </c>
@@ -6756,7 +6736,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="2">
         <v>45369</v>
       </c>
@@ -6782,7 +6762,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="2">
         <v>45369</v>
       </c>
@@ -6808,7 +6788,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="2">
         <v>45369</v>
       </c>
@@ -6834,7 +6814,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="2">
         <v>45369</v>
       </c>
@@ -6860,7 +6840,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
         <v>45369</v>
       </c>
@@ -6886,7 +6866,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="2">
         <v>45369</v>
       </c>
@@ -6912,7 +6892,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="2">
         <v>45369</v>
       </c>
@@ -6938,7 +6918,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="2">
         <v>45369</v>
       </c>
@@ -6964,7 +6944,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="2">
         <v>45369</v>
       </c>
@@ -6990,7 +6970,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="2">
         <v>45369</v>
       </c>
@@ -7016,7 +6996,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="2">
         <v>45369</v>
       </c>
@@ -7042,7 +7022,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="2">
         <v>45369</v>
       </c>
@@ -7068,7 +7048,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="2">
         <v>45369</v>
       </c>
@@ -7094,7 +7074,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="2">
         <v>45369</v>
       </c>
@@ -7120,7 +7100,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="2">
         <v>45369</v>
       </c>
@@ -7146,7 +7126,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="2">
         <v>45370</v>
       </c>
@@ -7172,7 +7152,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="2">
         <v>45370</v>
       </c>
@@ -7198,7 +7178,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="2">
         <v>45370</v>
       </c>
@@ -7224,7 +7204,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="2">
         <v>45370</v>
       </c>
@@ -7250,7 +7230,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="2">
         <v>45370</v>
       </c>
@@ -7276,7 +7256,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="2">
         <v>45370</v>
       </c>
@@ -7302,7 +7282,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="2">
         <v>45370</v>
       </c>
@@ -7328,7 +7308,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="2">
         <v>45370</v>
       </c>
@@ -7354,7 +7334,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="2">
         <v>45370</v>
       </c>
@@ -7380,7 +7360,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" s="2">
         <v>45370</v>
       </c>
@@ -7406,7 +7386,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" s="2">
         <v>45370</v>
       </c>
@@ -7432,7 +7412,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="2">
         <v>45370</v>
       </c>
@@ -7458,7 +7438,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="2">
         <v>45370</v>
       </c>
@@ -7484,7 +7464,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="2">
         <v>45370</v>
       </c>
@@ -7510,7 +7490,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="2">
         <v>45370</v>
       </c>
@@ -7536,7 +7516,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="2">
         <v>45370</v>
       </c>
@@ -7562,7 +7542,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="2">
         <v>45370</v>
       </c>
@@ -7588,7 +7568,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="2">
         <v>45370</v>
       </c>
@@ -7614,7 +7594,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" s="2">
         <v>45370</v>
       </c>
@@ -7640,7 +7620,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" s="2">
         <v>45370</v>
       </c>
@@ -7666,7 +7646,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" s="2">
         <v>45370</v>
       </c>
@@ -7692,7 +7672,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" s="2">
         <v>45370</v>
       </c>
@@ -7718,7 +7698,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="2">
         <v>45370</v>
       </c>
@@ -7744,7 +7724,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="2">
         <v>45370</v>
       </c>
@@ -7770,7 +7750,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="2">
         <v>45370</v>
       </c>
@@ -7796,7 +7776,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="2">
         <v>45370</v>
       </c>
@@ -7822,7 +7802,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="2">
         <v>45370</v>
       </c>
@@ -7848,7 +7828,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" s="2">
         <v>45370</v>
       </c>
@@ -7874,7 +7854,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84" s="2">
         <v>45370</v>
       </c>
@@ -7900,7 +7880,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" s="2">
         <v>45370</v>
       </c>
@@ -7926,7 +7906,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="2">
         <v>45370</v>
       </c>
@@ -7952,7 +7932,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="2">
         <v>45370</v>
       </c>
@@ -7978,7 +7958,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" s="2">
         <v>45370</v>
       </c>
@@ -8004,7 +7984,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" s="2">
         <v>45370</v>
       </c>
@@ -8030,7 +8010,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" s="2">
         <v>45370</v>
       </c>
@@ -8056,7 +8036,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" s="2">
         <v>45370</v>
       </c>
@@ -8082,7 +8062,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" s="2">
         <v>45370</v>
       </c>
@@ -8108,7 +8088,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" s="2">
         <v>45370</v>
       </c>
@@ -8134,7 +8114,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="2">
         <v>45370</v>
       </c>
@@ -8160,7 +8140,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" s="2">
         <v>45370</v>
       </c>
@@ -8186,7 +8166,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" s="2">
         <v>45370</v>
       </c>
@@ -8212,7 +8192,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="2">
         <v>45370</v>
       </c>
@@ -8238,7 +8218,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="2">
         <v>45370</v>
       </c>
@@ -8264,7 +8244,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="2">
         <v>45370</v>
       </c>
@@ -8290,7 +8270,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="2">
         <v>45370</v>
       </c>
@@ -8316,7 +8296,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" s="2">
         <v>45370</v>
       </c>
@@ -8342,7 +8322,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102" s="2">
         <v>45370</v>
       </c>
@@ -8368,7 +8348,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" s="2">
         <v>45370</v>
       </c>
@@ -8394,7 +8374,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" s="2">
         <v>45370</v>
       </c>
@@ -8420,7 +8400,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" s="2">
         <v>45370</v>
       </c>
@@ -8446,7 +8426,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" s="2">
         <v>45370</v>
       </c>
@@ -8472,7 +8452,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="2">
         <v>45370</v>
       </c>
@@ -8498,7 +8478,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="2">
         <v>45370</v>
       </c>
@@ -8524,7 +8504,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" s="2">
         <v>45370</v>
       </c>
@@ -8550,7 +8530,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" s="2">
         <v>45371</v>
       </c>
@@ -8576,7 +8556,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" s="2">
         <v>45371</v>
       </c>
@@ -8602,7 +8582,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" s="2">
         <v>45371</v>
       </c>
@@ -8628,7 +8608,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" s="2">
         <v>45371</v>
       </c>
@@ -8654,7 +8634,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" s="2">
         <v>45371</v>
       </c>
@@ -8680,7 +8660,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" s="2">
         <v>45371</v>
       </c>
@@ -8706,7 +8686,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" s="2">
         <v>45371</v>
       </c>
@@ -8732,7 +8712,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" s="2">
         <v>45371</v>
       </c>
@@ -8758,7 +8738,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" s="2">
         <v>45371</v>
       </c>
@@ -8784,7 +8764,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119" s="2">
         <v>45371</v>
       </c>
@@ -8810,7 +8790,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="A120" s="2">
         <v>45371</v>
       </c>
@@ -8836,7 +8816,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" s="2">
         <v>45371</v>
       </c>
@@ -8862,7 +8842,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" s="2">
         <v>45371</v>
       </c>
@@ -8888,7 +8868,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" s="2">
         <v>45371</v>
       </c>
@@ -8914,7 +8894,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" s="2">
         <v>45371</v>
       </c>
@@ -8940,7 +8920,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" s="2">
         <v>45371</v>
       </c>
@@ -8966,7 +8946,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" s="2">
         <v>45371</v>
       </c>
@@ -8992,7 +8972,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" s="2">
         <v>45371</v>
       </c>
@@ -9018,7 +8998,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128" s="2">
         <v>45371</v>
       </c>
@@ -9044,7 +9024,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="A129" s="2">
         <v>45371</v>
       </c>
@@ -9070,7 +9050,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="A130" s="2">
         <v>45371</v>
       </c>
@@ -9096,7 +9076,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8">
       <c r="A131" s="2">
         <v>45371</v>
       </c>
@@ -9122,7 +9102,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8">
       <c r="A132" s="2">
         <v>45371</v>
       </c>
@@ -9148,7 +9128,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8">
       <c r="A133" s="2">
         <v>45371</v>
       </c>
@@ -9174,7 +9154,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8">
       <c r="A134" s="2">
         <v>45371</v>
       </c>
@@ -9200,7 +9180,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8">
       <c r="A135" s="2">
         <v>45371</v>
       </c>
@@ -9226,7 +9206,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="A136" s="2">
         <v>45371</v>
       </c>
@@ -9252,7 +9232,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8">
       <c r="A137" s="2">
         <v>45371</v>
       </c>
@@ -9278,7 +9258,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8">
       <c r="A138" s="2">
         <v>45371</v>
       </c>
@@ -9304,7 +9284,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8">
       <c r="A139" s="2">
         <v>45371</v>
       </c>
@@ -9330,7 +9310,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8">
       <c r="A140" s="2">
         <v>45371</v>
       </c>
@@ -9356,7 +9336,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8">
       <c r="A141" s="2">
         <v>45371</v>
       </c>
@@ -9382,7 +9362,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8">
       <c r="A142" s="2">
         <v>45371</v>
       </c>
@@ -9408,7 +9388,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8">
       <c r="A143" s="2">
         <v>45371</v>
       </c>
@@ -9434,7 +9414,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8">
       <c r="A144" s="2">
         <v>45371</v>
       </c>
@@ -9460,7 +9440,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8">
       <c r="A145" s="2">
         <v>45371</v>
       </c>
@@ -9492,14 +9472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G287"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9522,7 +9502,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>45369</v>
       </c>
@@ -9545,7 +9525,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>45369</v>
       </c>
@@ -9568,7 +9548,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>45369</v>
       </c>
@@ -9591,7 +9571,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>45369</v>
       </c>
@@ -9614,7 +9594,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>45369</v>
       </c>
@@ -9637,7 +9617,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>45369</v>
       </c>
@@ -9660,7 +9640,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>45369</v>
       </c>
@@ -9683,7 +9663,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>45369</v>
       </c>
@@ -9706,7 +9686,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>45369</v>
       </c>
@@ -9729,7 +9709,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>45369</v>
       </c>
@@ -9752,7 +9732,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>45369</v>
       </c>
@@ -9775,7 +9755,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="2">
         <v>45369</v>
       </c>
@@ -9798,7 +9778,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="2">
         <v>45369</v>
       </c>
@@ -9821,7 +9801,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="2">
         <v>45369</v>
       </c>
@@ -9844,7 +9824,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>45369</v>
       </c>
@@ -9867,7 +9847,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="2">
         <v>45369</v>
       </c>
@@ -9890,7 +9870,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="2">
         <v>45369</v>
       </c>
@@ -9913,7 +9893,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>45369</v>
       </c>
@@ -9936,7 +9916,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="2">
         <v>45369</v>
       </c>
@@ -9959,7 +9939,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="2">
         <v>45369</v>
       </c>
@@ -9979,7 +9959,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="2">
         <v>45369</v>
       </c>
@@ -10002,7 +9982,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="2">
         <v>45369</v>
       </c>
@@ -10025,7 +10005,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="2">
         <v>45369</v>
       </c>
@@ -10048,7 +10028,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="2">
         <v>45369</v>
       </c>
@@ -10071,7 +10051,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="2">
         <v>45369</v>
       </c>
@@ -10094,7 +10074,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="2">
         <v>45369</v>
       </c>
@@ -10117,7 +10097,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="2">
         <v>45369</v>
       </c>
@@ -10140,7 +10120,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="2">
         <v>45369</v>
       </c>
@@ -10163,7 +10143,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="2">
         <v>45369</v>
       </c>
@@ -10186,7 +10166,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="2">
         <v>45369</v>
       </c>
@@ -10209,7 +10189,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="2">
         <v>45369</v>
       </c>
@@ -10232,7 +10212,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="2">
         <v>45369</v>
       </c>
@@ -10255,7 +10235,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="2">
         <v>45369</v>
       </c>
@@ -10278,7 +10258,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="2">
         <v>45369</v>
       </c>
@@ -10301,7 +10281,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="2">
         <v>45369</v>
       </c>
@@ -10324,7 +10304,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="2">
         <v>45369</v>
       </c>
@@ -10347,7 +10327,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="2">
         <v>45369</v>
       </c>
@@ -10370,7 +10350,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="2">
         <v>45369</v>
       </c>
@@ -10393,7 +10373,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="2">
         <v>45369</v>
       </c>
@@ -10416,7 +10396,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="2">
         <v>45369</v>
       </c>
@@ -10439,7 +10419,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="2">
         <v>45369</v>
       </c>
@@ -10462,7 +10442,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="2">
         <v>45369</v>
       </c>
@@ -10485,7 +10465,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="2">
         <v>45369</v>
       </c>
@@ -10508,7 +10488,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="2">
         <v>45369</v>
       </c>
@@ -10531,7 +10511,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="2">
         <v>45369</v>
       </c>
@@ -10554,7 +10534,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="2">
         <v>45369</v>
       </c>
@@ -10577,7 +10557,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="2">
         <v>45369</v>
       </c>
@@ -10600,7 +10580,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>45369</v>
       </c>
@@ -10623,7 +10603,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>45369</v>
       </c>
@@ -10646,7 +10626,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>45369</v>
       </c>
@@ -10669,7 +10649,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>45369</v>
       </c>
@@ -10692,7 +10672,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>45369</v>
       </c>
@@ -10715,7 +10695,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>45369</v>
       </c>
@@ -10738,7 +10718,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>45369</v>
       </c>
@@ -10761,7 +10741,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>45369</v>
       </c>
@@ -10784,7 +10764,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
         <v>45369</v>
       </c>
@@ -10807,7 +10787,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>45369</v>
       </c>
@@ -10830,7 +10810,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>45369</v>
       </c>
@@ -10853,7 +10833,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="2">
         <v>45369</v>
       </c>
@@ -10873,7 +10853,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="2">
         <v>45369</v>
       </c>
@@ -10896,7 +10876,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="2">
         <v>45369</v>
       </c>
@@ -10919,7 +10899,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="2">
         <v>45369</v>
       </c>
@@ -10942,7 +10922,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="2">
         <v>45369</v>
       </c>
@@ -10965,7 +10945,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="2">
         <v>45369</v>
       </c>
@@ -10988,7 +10968,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="2">
         <v>45369</v>
       </c>
@@ -11011,7 +10991,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="2">
         <v>45369</v>
       </c>
@@ -11034,7 +11014,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
         <v>45369</v>
       </c>
@@ -11057,7 +11037,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="2">
         <v>45369</v>
       </c>
@@ -11080,7 +11060,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="2">
         <v>45369</v>
       </c>
@@ -11103,7 +11083,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="2">
         <v>45369</v>
       </c>
@@ -11126,7 +11106,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="2">
         <v>45369</v>
       </c>
@@ -11149,7 +11129,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="2">
         <v>45369</v>
       </c>
@@ -11172,7 +11152,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="2">
         <v>45369</v>
       </c>
@@ -11195,7 +11175,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="2">
         <v>45370</v>
       </c>
@@ -11218,7 +11198,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="2">
         <v>45370</v>
       </c>
@@ -11241,7 +11221,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="2">
         <v>45370</v>
       </c>
@@ -11264,7 +11244,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="2">
         <v>45370</v>
       </c>
@@ -11284,7 +11264,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="2">
         <v>45370</v>
       </c>
@@ -11307,7 +11287,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="2">
         <v>45370</v>
       </c>
@@ -11330,7 +11310,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="2">
         <v>45370</v>
       </c>
@@ -11353,7 +11333,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="2">
         <v>45370</v>
       </c>
@@ -11376,7 +11356,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="2">
         <v>45370</v>
       </c>
@@ -11399,7 +11379,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="2">
         <v>45370</v>
       </c>
@@ -11422,7 +11402,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="2">
         <v>45370</v>
       </c>
@@ -11445,7 +11425,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="2">
         <v>45370</v>
       </c>
@@ -11468,7 +11448,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="2">
         <v>45370</v>
       </c>
@@ -11488,7 +11468,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="2">
         <v>45370</v>
       </c>
@@ -11511,7 +11491,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="2">
         <v>45370</v>
       </c>
@@ -11534,7 +11514,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="2">
         <v>45370</v>
       </c>
@@ -11557,7 +11537,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="2">
         <v>45370</v>
       </c>
@@ -11580,7 +11560,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="2">
         <v>45370</v>
       </c>
@@ -11603,7 +11583,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="2">
         <v>45370</v>
       </c>
@@ -11626,7 +11606,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="2">
         <v>45370</v>
       </c>
@@ -11649,7 +11629,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="2">
         <v>45370</v>
       </c>
@@ -11672,7 +11652,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="2">
         <v>45370</v>
       </c>
@@ -11695,7 +11675,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="2">
         <v>45370</v>
       </c>
@@ -11718,7 +11698,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="2">
         <v>45370</v>
       </c>
@@ -11741,7 +11721,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="2">
         <v>45370</v>
       </c>
@@ -11764,7 +11744,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="2">
         <v>45370</v>
       </c>
@@ -11787,7 +11767,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="2">
         <v>45370</v>
       </c>
@@ -11810,7 +11790,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="2">
         <v>45370</v>
       </c>
@@ -11833,7 +11813,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="2">
         <v>45370</v>
       </c>
@@ -11856,7 +11836,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="2">
         <v>45370</v>
       </c>
@@ -11879,7 +11859,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="2">
         <v>45370</v>
       </c>
@@ -11902,7 +11882,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="2">
         <v>45370</v>
       </c>
@@ -11925,7 +11905,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="2">
         <v>45370</v>
       </c>
@@ -11945,7 +11925,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="2">
         <v>45370</v>
       </c>
@@ -11968,7 +11948,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="2">
         <v>45370</v>
       </c>
@@ -11991,7 +11971,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="2">
         <v>45370</v>
       </c>
@@ -12014,7 +11994,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="2">
         <v>45370</v>
       </c>
@@ -12037,7 +12017,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="2">
         <v>45370</v>
       </c>
@@ -12060,7 +12040,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="2">
         <v>45370</v>
       </c>
@@ -12083,7 +12063,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="2">
         <v>45370</v>
       </c>
@@ -12106,7 +12086,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="2">
         <v>45370</v>
       </c>
@@ -12129,7 +12109,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="2">
         <v>45370</v>
       </c>
@@ -12152,7 +12132,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="2">
         <v>45370</v>
       </c>
@@ -12175,7 +12155,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="2">
         <v>45370</v>
       </c>
@@ -12198,7 +12178,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="2">
         <v>45370</v>
       </c>
@@ -12221,7 +12201,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="2">
         <v>45370</v>
       </c>
@@ -12244,7 +12224,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="2">
         <v>45370</v>
       </c>
@@ -12267,7 +12247,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="2">
         <v>45370</v>
       </c>
@@ -12290,7 +12270,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="2">
         <v>45370</v>
       </c>
@@ -12313,7 +12293,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="2">
         <v>45370</v>
       </c>
@@ -12336,7 +12316,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="2">
         <v>45370</v>
       </c>
@@ -12359,7 +12339,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="2">
         <v>45370</v>
       </c>
@@ -12382,7 +12362,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="2">
         <v>45370</v>
       </c>
@@ -12405,7 +12385,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="2">
         <v>45370</v>
       </c>
@@ -12428,7 +12408,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="2">
         <v>45370</v>
       </c>
@@ -12451,7 +12431,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="2">
         <v>45370</v>
       </c>
@@ -12474,7 +12454,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" s="2">
         <v>45370</v>
       </c>
@@ -12497,7 +12477,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="2">
         <v>45370</v>
       </c>
@@ -12520,7 +12500,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="2">
         <v>45370</v>
       </c>
@@ -12543,7 +12523,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" s="2">
         <v>45370</v>
       </c>
@@ -12566,7 +12546,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" s="2">
         <v>45370</v>
       </c>
@@ -12589,7 +12569,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" s="2">
         <v>45370</v>
       </c>
@@ -12612,7 +12592,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" s="2">
         <v>45370</v>
       </c>
@@ -12635,7 +12615,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" s="2">
         <v>45370</v>
       </c>
@@ -12658,7 +12638,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" s="2">
         <v>45370</v>
       </c>
@@ -12681,7 +12661,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" s="2">
         <v>45370</v>
       </c>
@@ -12704,7 +12684,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" s="2">
         <v>45370</v>
       </c>
@@ -12727,7 +12707,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" s="2">
         <v>45370</v>
       </c>
@@ -12750,7 +12730,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" s="2">
         <v>45370</v>
       </c>
@@ -12773,7 +12753,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" s="2">
         <v>45370</v>
       </c>
@@ -12796,7 +12776,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" s="2">
         <v>45370</v>
       </c>
@@ -12819,7 +12799,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" s="2">
         <v>45370</v>
       </c>
@@ -12842,7 +12822,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" s="2">
         <v>45370</v>
       </c>
@@ -12865,7 +12845,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" s="2">
         <v>45370</v>
       </c>
@@ -12888,7 +12868,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7">
       <c r="A149" s="2">
         <v>45370</v>
       </c>
@@ -12911,7 +12891,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7">
       <c r="A150" s="2">
         <v>45370</v>
       </c>
@@ -12934,7 +12914,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" s="2">
         <v>45370</v>
       </c>
@@ -12957,7 +12937,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" s="2">
         <v>45370</v>
       </c>
@@ -12980,7 +12960,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" s="2">
         <v>45370</v>
       </c>
@@ -13003,7 +12983,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" s="2">
         <v>45370</v>
       </c>
@@ -13026,7 +13006,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" s="2">
         <v>45370</v>
       </c>
@@ -13049,7 +13029,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" s="2">
         <v>45370</v>
       </c>
@@ -13072,7 +13052,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7">
       <c r="A157" s="2">
         <v>45370</v>
       </c>
@@ -13095,7 +13075,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7">
       <c r="A158" s="2">
         <v>45370</v>
       </c>
@@ -13118,7 +13098,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7">
       <c r="A159" s="2">
         <v>45370</v>
       </c>
@@ -13141,7 +13121,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7">
       <c r="A160" s="2">
         <v>45370</v>
       </c>
@@ -13164,7 +13144,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7">
       <c r="A161" s="2">
         <v>45370</v>
       </c>
@@ -13187,7 +13167,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7">
       <c r="A162" s="2">
         <v>45370</v>
       </c>
@@ -13210,7 +13190,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7">
       <c r="A163" s="2">
         <v>45370</v>
       </c>
@@ -13233,7 +13213,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7">
       <c r="A164" s="2">
         <v>45370</v>
       </c>
@@ -13256,7 +13236,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7">
       <c r="A165" s="2">
         <v>45370</v>
       </c>
@@ -13279,7 +13259,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7">
       <c r="A166" s="2">
         <v>45370</v>
       </c>
@@ -13302,7 +13282,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7">
       <c r="A167" s="2">
         <v>45370</v>
       </c>
@@ -13325,7 +13305,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7">
       <c r="A168" s="2">
         <v>45370</v>
       </c>
@@ -13348,7 +13328,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7">
       <c r="A169" s="2">
         <v>45370</v>
       </c>
@@ -13371,7 +13351,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7">
       <c r="A170" s="2">
         <v>45370</v>
       </c>
@@ -13394,7 +13374,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7">
       <c r="A171" s="2">
         <v>45370</v>
       </c>
@@ -13417,7 +13397,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7">
       <c r="A172" s="2">
         <v>45370</v>
       </c>
@@ -13440,7 +13420,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7">
       <c r="A173" s="2">
         <v>45370</v>
       </c>
@@ -13463,7 +13443,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7">
       <c r="A174" s="2">
         <v>45370</v>
       </c>
@@ -13486,7 +13466,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7">
       <c r="A175" s="2">
         <v>45370</v>
       </c>
@@ -13509,7 +13489,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7">
       <c r="A176" s="2">
         <v>45370</v>
       </c>
@@ -13532,7 +13512,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7">
       <c r="A177" s="2">
         <v>45370</v>
       </c>
@@ -13555,7 +13535,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7">
       <c r="A178" s="2">
         <v>45370</v>
       </c>
@@ -13578,7 +13558,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7">
       <c r="A179" s="2">
         <v>45370</v>
       </c>
@@ -13601,7 +13581,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7">
       <c r="A180" s="2">
         <v>45371</v>
       </c>
@@ -13624,7 +13604,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7">
       <c r="A181" s="2">
         <v>45371</v>
       </c>
@@ -13647,7 +13627,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7">
       <c r="A182" s="2">
         <v>45371</v>
       </c>
@@ -13670,7 +13650,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7">
       <c r="A183" s="2">
         <v>45371</v>
       </c>
@@ -13693,7 +13673,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7">
       <c r="A184" s="2">
         <v>45371</v>
       </c>
@@ -13716,7 +13696,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7">
       <c r="A185" s="2">
         <v>45371</v>
       </c>
@@ -13739,7 +13719,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7">
       <c r="A186" s="2">
         <v>45371</v>
       </c>
@@ -13762,7 +13742,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7">
       <c r="A187" s="2">
         <v>45371</v>
       </c>
@@ -13785,7 +13765,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7">
       <c r="A188" s="2">
         <v>45371</v>
       </c>
@@ -13808,7 +13788,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7">
       <c r="A189" s="2">
         <v>45371</v>
       </c>
@@ -13831,7 +13811,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7">
       <c r="A190" s="2">
         <v>45371</v>
       </c>
@@ -13854,7 +13834,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7">
       <c r="A191" s="2">
         <v>45371</v>
       </c>
@@ -13877,7 +13857,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7">
       <c r="A192" s="2">
         <v>45371</v>
       </c>
@@ -13900,7 +13880,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7">
       <c r="A193" s="2">
         <v>45371</v>
       </c>
@@ -13923,7 +13903,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7">
       <c r="A194" s="2">
         <v>45371</v>
       </c>
@@ -13946,7 +13926,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7">
       <c r="A195" s="2">
         <v>45371</v>
       </c>
@@ -13969,7 +13949,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7">
       <c r="A196" s="2">
         <v>45371</v>
       </c>
@@ -13992,7 +13972,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7">
       <c r="A197" s="2">
         <v>45371</v>
       </c>
@@ -14015,7 +13995,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7">
       <c r="A198" s="2">
         <v>45371</v>
       </c>
@@ -14038,7 +14018,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7">
       <c r="A199" s="2">
         <v>45371</v>
       </c>
@@ -14061,7 +14041,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7">
       <c r="A200" s="2">
         <v>45371</v>
       </c>
@@ -14084,7 +14064,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7">
       <c r="A201" s="2">
         <v>45371</v>
       </c>
@@ -14107,7 +14087,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7">
       <c r="A202" s="2">
         <v>45371</v>
       </c>
@@ -14130,7 +14110,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7">
       <c r="A203" s="2">
         <v>45371</v>
       </c>
@@ -14153,7 +14133,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7">
       <c r="A204" s="2">
         <v>45371</v>
       </c>
@@ -14176,7 +14156,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7">
       <c r="A205" s="2">
         <v>45371</v>
       </c>
@@ -14199,7 +14179,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7">
       <c r="A206" s="2">
         <v>45371</v>
       </c>
@@ -14222,7 +14202,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7">
       <c r="A207" s="2">
         <v>45371</v>
       </c>
@@ -14245,7 +14225,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7">
       <c r="A208" s="2">
         <v>45371</v>
       </c>
@@ -14268,7 +14248,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7">
       <c r="A209" s="2">
         <v>45371</v>
       </c>
@@ -14291,7 +14271,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7">
       <c r="A210" s="2">
         <v>45371</v>
       </c>
@@ -14314,7 +14294,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7">
       <c r="A211" s="2">
         <v>45371</v>
       </c>
@@ -14337,7 +14317,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7">
       <c r="A212" s="2">
         <v>45371</v>
       </c>
@@ -14360,7 +14340,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7">
       <c r="A213" s="2">
         <v>45371</v>
       </c>
@@ -14383,7 +14363,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7">
       <c r="A214" s="2">
         <v>45371</v>
       </c>
@@ -14406,7 +14386,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7">
       <c r="A215" s="2">
         <v>45371</v>
       </c>
@@ -14429,7 +14409,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7">
       <c r="A216" s="2">
         <v>45369</v>
       </c>
@@ -14452,7 +14432,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7">
       <c r="A217" s="2">
         <v>45371</v>
       </c>
@@ -14475,7 +14455,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7">
       <c r="A218" s="2">
         <v>45371</v>
       </c>
@@ -14498,7 +14478,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7">
       <c r="A219" s="2">
         <v>45371</v>
       </c>
@@ -14521,7 +14501,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7">
       <c r="A220" s="2">
         <v>45371</v>
       </c>
@@ -14544,7 +14524,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7">
       <c r="A221" s="2">
         <v>45371</v>
       </c>
@@ -14567,7 +14547,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7">
       <c r="A222" s="2">
         <v>45371</v>
       </c>
@@ -14590,7 +14570,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7">
       <c r="A223" s="2">
         <v>45371</v>
       </c>
@@ -14613,7 +14593,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7">
       <c r="A224" s="2">
         <v>45371</v>
       </c>
@@ -14636,7 +14616,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7">
       <c r="A225" s="2">
         <v>45371</v>
       </c>
@@ -14656,7 +14636,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7">
       <c r="A226" s="2">
         <v>45371</v>
       </c>
@@ -14679,7 +14659,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7">
       <c r="A227" s="2">
         <v>45371</v>
       </c>
@@ -14702,7 +14682,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7">
       <c r="A228" s="2">
         <v>45371</v>
       </c>
@@ -14725,7 +14705,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7">
       <c r="A229" s="2">
         <v>45371</v>
       </c>
@@ -14748,7 +14728,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7">
       <c r="A230" s="2">
         <v>45371</v>
       </c>
@@ -14771,7 +14751,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7">
       <c r="A231" s="2">
         <v>45371</v>
       </c>
@@ -14794,7 +14774,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7">
       <c r="A232" s="2">
         <v>45371</v>
       </c>
@@ -14817,7 +14797,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7">
       <c r="A233" s="2">
         <v>45371</v>
       </c>
@@ -14840,7 +14820,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7">
       <c r="A234" s="2">
         <v>45371</v>
       </c>
@@ -14863,7 +14843,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7">
       <c r="A235" s="2">
         <v>45371</v>
       </c>
@@ -14886,7 +14866,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7">
       <c r="A236" s="2">
         <v>45371</v>
       </c>
@@ -14909,7 +14889,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7">
       <c r="A237" s="2">
         <v>45371</v>
       </c>
@@ -14932,7 +14912,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7">
       <c r="A238" s="2">
         <v>45371</v>
       </c>
@@ -14955,7 +14935,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7">
       <c r="A239" s="2">
         <v>45371</v>
       </c>
@@ -14978,7 +14958,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7">
       <c r="A240" s="2">
         <v>45371</v>
       </c>
@@ -15001,7 +14981,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7">
       <c r="A241" s="2">
         <v>45371</v>
       </c>
@@ -15024,7 +15004,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7">
       <c r="A242" s="2">
         <v>45371</v>
       </c>
@@ -15047,7 +15027,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7">
       <c r="A243" s="2">
         <v>45371</v>
       </c>
@@ -15070,7 +15050,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7">
       <c r="A244" s="2">
         <v>45371</v>
       </c>
@@ -15093,7 +15073,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7">
       <c r="A245" s="2">
         <v>45371</v>
       </c>
@@ -15116,7 +15096,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7">
       <c r="A246" s="2">
         <v>45371</v>
       </c>
@@ -15139,7 +15119,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7">
       <c r="A247" s="2">
         <v>45371</v>
       </c>
@@ -15162,7 +15142,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7">
       <c r="A248" s="2">
         <v>45371</v>
       </c>
@@ -15185,7 +15165,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7">
       <c r="A249" s="2">
         <v>45371</v>
       </c>
@@ -15208,7 +15188,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7">
       <c r="A250" s="2">
         <v>45371</v>
       </c>
@@ -15231,7 +15211,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7">
       <c r="A251" s="2">
         <v>45371</v>
       </c>
@@ -15254,7 +15234,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7">
       <c r="A252" s="2">
         <v>45371</v>
       </c>
@@ -15277,7 +15257,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7">
       <c r="A253" s="2">
         <v>45371</v>
       </c>
@@ -15300,7 +15280,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7">
       <c r="A254" s="2">
         <v>45371</v>
       </c>
@@ -15323,7 +15303,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7">
       <c r="A255" s="2">
         <v>45371</v>
       </c>
@@ -15346,7 +15326,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7">
       <c r="A256" s="2">
         <v>45371</v>
       </c>
@@ -15369,7 +15349,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7">
       <c r="A257" s="2">
         <v>45371</v>
       </c>
@@ -15392,7 +15372,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7">
       <c r="A258" s="2">
         <v>45371</v>
       </c>
@@ -15415,7 +15395,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7">
       <c r="A259" s="2">
         <v>45371</v>
       </c>
@@ -15438,7 +15418,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7">
       <c r="A260" s="2">
         <v>45371</v>
       </c>
@@ -15461,7 +15441,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7">
       <c r="A261" s="2">
         <v>45371</v>
       </c>
@@ -15484,7 +15464,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7">
       <c r="A262" s="2">
         <v>45371</v>
       </c>
@@ -15507,7 +15487,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7">
       <c r="A263" s="2">
         <v>45371</v>
       </c>
@@ -15530,7 +15510,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7">
       <c r="A264" s="2">
         <v>45371</v>
       </c>
@@ -15553,7 +15533,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7">
       <c r="A265" s="2">
         <v>45371</v>
       </c>
@@ -15576,7 +15556,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7">
       <c r="A266" s="2">
         <v>45371</v>
       </c>
@@ -15599,7 +15579,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7">
       <c r="A267" s="2">
         <v>45371</v>
       </c>
@@ -15622,7 +15602,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7">
       <c r="A268" s="2">
         <v>45371</v>
       </c>
@@ -15645,7 +15625,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7">
       <c r="A269" s="2">
         <v>45371</v>
       </c>
@@ -15668,7 +15648,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7">
       <c r="A270" s="2">
         <v>45371</v>
       </c>
@@ -15691,7 +15671,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7">
       <c r="A271" s="2">
         <v>45371</v>
       </c>
@@ -15714,7 +15694,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7">
       <c r="A272" s="2">
         <v>45371</v>
       </c>
@@ -15737,7 +15717,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7">
       <c r="A273" s="2">
         <v>45371</v>
       </c>
@@ -15760,7 +15740,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7">
       <c r="A274" s="2">
         <v>45371</v>
       </c>
@@ -15783,7 +15763,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7">
       <c r="A275" s="2">
         <v>45371</v>
       </c>
@@ -15806,7 +15786,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7">
       <c r="A276" s="2">
         <v>45371</v>
       </c>
@@ -15829,7 +15809,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7">
       <c r="A277" s="2">
         <v>45371</v>
       </c>
@@ -15852,7 +15832,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7">
       <c r="A278" s="2">
         <v>45371</v>
       </c>
@@ -15875,7 +15855,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7">
       <c r="A279" s="2">
         <v>45371</v>
       </c>
@@ -15898,7 +15878,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7">
       <c r="A280" s="2">
         <v>45371</v>
       </c>
@@ -15921,7 +15901,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7">
       <c r="A281" s="2">
         <v>45371</v>
       </c>
@@ -15944,7 +15924,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7">
       <c r="A282" s="2">
         <v>45371</v>
       </c>
@@ -15967,7 +15947,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7">
       <c r="A283" s="2">
         <v>45371</v>
       </c>
@@ -15990,7 +15970,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7">
       <c r="A284" s="2">
         <v>45371</v>
       </c>
@@ -16013,7 +15993,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7">
       <c r="A285" s="2">
         <v>45371</v>
       </c>
@@ -16036,7 +16016,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7">
       <c r="A286" s="2">
         <v>45371</v>
       </c>
@@ -16059,7 +16039,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7">
       <c r="A287" s="2">
         <v>45371</v>
       </c>
@@ -16088,14 +16068,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C450"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -16106,7 +16086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>824</v>
       </c>
@@ -16117,7 +16097,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>1133</v>
       </c>
@@ -16128,7 +16108,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>715</v>
       </c>
@@ -16139,7 +16119,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>712</v>
       </c>
@@ -16150,7 +16130,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>867</v>
       </c>
@@ -16161,7 +16141,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>815</v>
       </c>
@@ -16172,7 +16152,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>816</v>
       </c>
@@ -16183,7 +16163,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>638</v>
       </c>
@@ -16194,7 +16174,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>707</v>
       </c>
@@ -16205,7 +16185,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>826</v>
       </c>
@@ -16216,7 +16196,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>773</v>
       </c>
@@ -16227,7 +16207,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>757</v>
       </c>
@@ -16238,7 +16218,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>379</v>
       </c>
@@ -16249,7 +16229,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>799</v>
       </c>
@@ -16260,7 +16240,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>723</v>
       </c>
@@ -16271,7 +16251,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>701</v>
       </c>
@@ -16282,7 +16262,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>331</v>
       </c>
@@ -16293,7 +16273,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>717</v>
       </c>
@@ -16304,7 +16284,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>693</v>
       </c>
@@ -16315,7 +16295,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>762</v>
       </c>
@@ -16326,7 +16306,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>670</v>
       </c>
@@ -16337,7 +16317,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>646</v>
       </c>
@@ -16348,7 +16328,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>849</v>
       </c>
@@ -16359,7 +16339,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>1134</v>
       </c>
@@ -16370,7 +16350,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>678</v>
       </c>
@@ -16381,7 +16361,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>835</v>
       </c>
@@ -16392,7 +16372,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>809</v>
       </c>
@@ -16403,7 +16383,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>666</v>
       </c>
@@ -16414,7 +16394,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>772</v>
       </c>
@@ -16425,7 +16405,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>821</v>
       </c>
@@ -16436,7 +16416,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>814</v>
       </c>
@@ -16447,7 +16427,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>766</v>
       </c>
@@ -16458,7 +16438,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>861</v>
       </c>
@@ -16469,7 +16449,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>640</v>
       </c>
@@ -16480,7 +16460,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>828</v>
       </c>
@@ -16491,7 +16471,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>852</v>
       </c>
@@ -16502,7 +16482,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>698</v>
       </c>
@@ -16513,7 +16493,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>635</v>
       </c>
@@ -16524,7 +16504,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>838</v>
       </c>
@@ -16535,7 +16515,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>690</v>
       </c>
@@ -16546,7 +16526,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>702</v>
       </c>
@@ -16557,7 +16537,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>818</v>
       </c>
@@ -16568,7 +16548,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>819</v>
       </c>
@@ -16579,7 +16559,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>846</v>
       </c>
@@ -16590,7 +16570,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>714</v>
       </c>
@@ -16601,7 +16581,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>865</v>
       </c>
@@ -16612,7 +16592,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>864</v>
       </c>
@@ -16623,7 +16603,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>832</v>
       </c>
@@ -16634,7 +16614,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>697</v>
       </c>
@@ -16645,7 +16625,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>328</v>
       </c>
@@ -16656,7 +16636,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>680</v>
       </c>
@@ -16667,7 +16647,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>639</v>
       </c>
@@ -16678,7 +16658,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>676</v>
       </c>
@@ -16689,7 +16669,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>782</v>
       </c>
@@ -16700,7 +16680,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>857</v>
       </c>
@@ -16711,7 +16691,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>664</v>
       </c>
@@ -16722,7 +16702,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>850</v>
       </c>
@@ -16733,7 +16713,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>637</v>
       </c>
@@ -16744,7 +16724,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>667</v>
       </c>
@@ -16755,7 +16735,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>802</v>
       </c>
@@ -16766,7 +16746,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>706</v>
       </c>
@@ -16777,7 +16757,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>280</v>
       </c>
@@ -16788,7 +16768,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>305</v>
       </c>
@@ -16799,7 +16779,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>1135</v>
       </c>
@@ -16810,7 +16790,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>359</v>
       </c>
@@ -16821,7 +16801,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>770</v>
       </c>
@@ -16832,7 +16812,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>657</v>
       </c>
@@ -16843,7 +16823,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>688</v>
       </c>
@@ -16854,7 +16834,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>792</v>
       </c>
@@ -16865,7 +16845,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>833</v>
       </c>
@@ -16876,7 +16856,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>642</v>
       </c>
@@ -16887,7 +16867,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>871</v>
       </c>
@@ -16898,7 +16878,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>797</v>
       </c>
@@ -16909,7 +16889,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>710</v>
       </c>
@@ -16920,7 +16900,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>384</v>
       </c>
@@ -16931,7 +16911,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>711</v>
       </c>
@@ -16942,7 +16922,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>860</v>
       </c>
@@ -16953,7 +16933,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>692</v>
       </c>
@@ -16964,7 +16944,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>736</v>
       </c>
@@ -16975,7 +16955,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>263</v>
       </c>
@@ -16986,7 +16966,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>352</v>
       </c>
@@ -16997,7 +16977,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>323</v>
       </c>
@@ -17008,7 +16988,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>330</v>
       </c>
@@ -17019,7 +16999,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>803</v>
       </c>
@@ -17030,7 +17010,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>365</v>
       </c>
@@ -17041,7 +17021,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>264</v>
       </c>
@@ -17052,7 +17032,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>859</v>
       </c>
@@ -17063,7 +17043,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>804</v>
       </c>
@@ -17074,7 +17054,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>703</v>
       </c>
@@ -17085,7 +17065,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>774</v>
       </c>
@@ -17096,7 +17076,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>366</v>
       </c>
@@ -17107,7 +17087,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>1136</v>
       </c>
@@ -17118,7 +17098,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>314</v>
       </c>
@@ -17129,7 +17109,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>288</v>
       </c>
@@ -17140,7 +17120,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>329</v>
       </c>
@@ -17151,7 +17131,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>375</v>
       </c>
@@ -17162,7 +17142,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>306</v>
       </c>
@@ -17173,7 +17153,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>855</v>
       </c>
@@ -17184,7 +17164,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>385</v>
       </c>
@@ -17195,7 +17175,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>341</v>
       </c>
@@ -17206,7 +17186,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>298</v>
       </c>
@@ -17217,7 +17197,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>791</v>
       </c>
@@ -17228,7 +17208,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>721</v>
       </c>
@@ -17239,7 +17219,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>265</v>
       </c>
@@ -17250,7 +17230,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>805</v>
       </c>
@@ -17261,7 +17241,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>768</v>
       </c>
@@ -17272,7 +17252,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>839</v>
       </c>
@@ -17283,7 +17263,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>783</v>
       </c>
@@ -17294,7 +17274,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>806</v>
       </c>
@@ -17305,7 +17285,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>767</v>
       </c>
@@ -17316,7 +17296,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>376</v>
       </c>
@@ -17327,7 +17307,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>854</v>
       </c>
@@ -17338,7 +17318,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>284</v>
       </c>
@@ -17349,7 +17329,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>269</v>
       </c>
@@ -17360,7 +17340,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>1137</v>
       </c>
@@ -17371,7 +17351,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>266</v>
       </c>
@@ -17382,7 +17362,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>794</v>
       </c>
@@ -17393,7 +17373,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>317</v>
       </c>
@@ -17404,7 +17384,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>356</v>
       </c>
@@ -17415,7 +17395,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>633</v>
       </c>
@@ -17426,7 +17406,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>1138</v>
       </c>
@@ -17437,7 +17417,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>360</v>
       </c>
@@ -17448,7 +17428,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>377</v>
       </c>
@@ -17459,7 +17439,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>655</v>
       </c>
@@ -17470,7 +17450,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>347</v>
       </c>
@@ -17481,7 +17461,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>801</v>
       </c>
@@ -17492,7 +17472,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>1139</v>
       </c>
@@ -17503,7 +17483,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>351</v>
       </c>
@@ -17514,7 +17494,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>361</v>
       </c>
@@ -17525,7 +17505,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>716</v>
       </c>
@@ -17536,7 +17516,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>853</v>
       </c>
@@ -17547,7 +17527,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>256</v>
       </c>
@@ -17558,7 +17538,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>261</v>
       </c>
@@ -17569,7 +17549,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>373</v>
       </c>
@@ -17580,7 +17560,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>820</v>
       </c>
@@ -17591,7 +17571,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>307</v>
       </c>
@@ -17602,7 +17582,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>663</v>
       </c>
@@ -17613,7 +17593,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>632</v>
       </c>
@@ -17624,7 +17604,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>813</v>
       </c>
@@ -17635,7 +17615,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>371</v>
       </c>
@@ -17646,7 +17626,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>389</v>
       </c>
@@ -17657,7 +17637,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>311</v>
       </c>
@@ -17668,7 +17648,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>378</v>
       </c>
@@ -17679,7 +17659,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>271</v>
       </c>
@@ -17690,7 +17670,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>722</v>
       </c>
@@ -17701,7 +17681,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>808</v>
       </c>
@@ -17712,7 +17692,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>834</v>
       </c>
@@ -17723,7 +17703,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>1140</v>
       </c>
@@ -17734,7 +17714,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>272</v>
       </c>
@@ -17745,7 +17725,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>297</v>
       </c>
@@ -17756,7 +17736,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>724</v>
       </c>
@@ -17767,7 +17747,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>769</v>
       </c>
@@ -17778,7 +17758,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>718</v>
       </c>
@@ -17789,7 +17769,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>394</v>
       </c>
@@ -17800,7 +17780,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>369</v>
       </c>
@@ -17811,7 +17791,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>798</v>
       </c>
@@ -17822,7 +17802,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>278</v>
       </c>
@@ -17833,7 +17813,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>682</v>
       </c>
@@ -17844,7 +17824,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>386</v>
       </c>
@@ -17855,7 +17835,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>628</v>
       </c>
@@ -17866,7 +17846,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>647</v>
       </c>
@@ -17877,7 +17857,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>362</v>
       </c>
@@ -17888,7 +17868,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>372</v>
       </c>
@@ -17899,7 +17879,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>281</v>
       </c>
@@ -17910,7 +17890,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>294</v>
       </c>
@@ -17921,7 +17901,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>308</v>
       </c>
@@ -17932,7 +17912,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>267</v>
       </c>
@@ -17943,7 +17923,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>353</v>
       </c>
@@ -17954,7 +17934,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>654</v>
       </c>
@@ -17965,7 +17945,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>363</v>
       </c>
@@ -17976,7 +17956,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>277</v>
       </c>
@@ -17987,7 +17967,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>340</v>
       </c>
@@ -17998,7 +17978,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>348</v>
       </c>
@@ -18009,7 +17989,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>669</v>
       </c>
@@ -18020,7 +18000,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>699</v>
       </c>
@@ -18031,7 +18011,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>1141</v>
       </c>
@@ -18042,7 +18022,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>318</v>
       </c>
@@ -18053,7 +18033,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>252</v>
       </c>
@@ -18064,7 +18044,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>301</v>
       </c>
@@ -18075,7 +18055,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>335</v>
       </c>
@@ -18086,7 +18066,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>390</v>
       </c>
@@ -18097,7 +18077,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>342</v>
       </c>
@@ -18108,7 +18088,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>332</v>
       </c>
@@ -18119,7 +18099,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>279</v>
       </c>
@@ -18130,7 +18110,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>810</v>
       </c>
@@ -18141,7 +18121,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>336</v>
       </c>
@@ -18152,7 +18132,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>275</v>
       </c>
@@ -18163,7 +18143,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>300</v>
       </c>
@@ -18174,7 +18154,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>683</v>
       </c>
@@ -18185,7 +18165,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>665</v>
       </c>
@@ -18196,7 +18176,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>758</v>
       </c>
@@ -18207,7 +18187,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>289</v>
       </c>
@@ -18218,7 +18198,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>343</v>
       </c>
@@ -18229,7 +18209,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>827</v>
       </c>
@@ -18240,7 +18220,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>315</v>
       </c>
@@ -18251,7 +18231,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>316</v>
       </c>
@@ -18262,7 +18242,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>273</v>
       </c>
@@ -18273,7 +18253,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>822</v>
       </c>
@@ -18284,7 +18264,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>689</v>
       </c>
@@ -18295,7 +18275,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>1142</v>
       </c>
@@ -18306,7 +18286,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>858</v>
       </c>
@@ -18317,7 +18297,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>282</v>
       </c>
@@ -18328,7 +18308,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>387</v>
       </c>
@@ -18339,7 +18319,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>1143</v>
       </c>
@@ -18350,7 +18330,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>679</v>
       </c>
@@ -18361,7 +18341,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>292</v>
       </c>
@@ -18372,7 +18352,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>370</v>
       </c>
@@ -18383,7 +18363,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>786</v>
       </c>
@@ -18394,7 +18374,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>357</v>
       </c>
@@ -18405,7 +18385,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>388</v>
       </c>
@@ -18416,7 +18396,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>759</v>
       </c>
@@ -18427,7 +18407,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>344</v>
       </c>
@@ -18438,7 +18418,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>708</v>
       </c>
@@ -18449,7 +18429,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>649</v>
       </c>
@@ -18460,7 +18440,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>705</v>
       </c>
@@ -18471,7 +18451,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>302</v>
       </c>
@@ -18482,7 +18462,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>845</v>
       </c>
@@ -18493,7 +18473,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>303</v>
       </c>
@@ -18504,7 +18484,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>1144</v>
       </c>
@@ -18515,7 +18495,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>367</v>
       </c>
@@ -18526,7 +18506,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>364</v>
       </c>
@@ -18537,7 +18517,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>681</v>
       </c>
@@ -18548,7 +18528,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>1145</v>
       </c>
@@ -18559,7 +18539,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>672</v>
       </c>
@@ -18570,7 +18550,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>324</v>
       </c>
@@ -18581,7 +18561,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>661</v>
       </c>
@@ -18592,7 +18572,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>764</v>
       </c>
@@ -18603,7 +18583,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>630</v>
       </c>
@@ -18614,7 +18594,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>380</v>
       </c>
@@ -18625,7 +18605,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>866</v>
       </c>
@@ -18636,7 +18616,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>285</v>
       </c>
@@ -18647,7 +18627,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>790</v>
       </c>
@@ -18658,7 +18638,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>793</v>
       </c>
@@ -18669,7 +18649,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>694</v>
       </c>
@@ -18680,7 +18660,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>668</v>
       </c>
@@ -18691,7 +18671,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>829</v>
       </c>
@@ -18702,7 +18682,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>268</v>
       </c>
@@ -18713,7 +18693,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>863</v>
       </c>
@@ -18724,7 +18704,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>334</v>
       </c>
@@ -18735,7 +18715,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>627</v>
       </c>
@@ -18746,7 +18726,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>844</v>
       </c>
@@ -18757,7 +18737,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>358</v>
       </c>
@@ -18768,7 +18748,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>1146</v>
       </c>
@@ -18779,7 +18759,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>319</v>
       </c>
@@ -18790,7 +18770,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>355</v>
       </c>
@@ -18801,7 +18781,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>257</v>
       </c>
@@ -18812,7 +18792,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>658</v>
       </c>
@@ -18823,7 +18803,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>337</v>
       </c>
@@ -18834,7 +18814,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>760</v>
       </c>
@@ -18845,7 +18825,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>258</v>
       </c>
@@ -18856,7 +18836,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>1147</v>
       </c>
@@ -18867,7 +18847,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>848</v>
       </c>
@@ -18878,7 +18858,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>862</v>
       </c>
@@ -18889,7 +18869,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>320</v>
       </c>
@@ -18900,7 +18880,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>1148</v>
       </c>
@@ -18911,7 +18891,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>338</v>
       </c>
@@ -18922,7 +18902,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>325</v>
       </c>
@@ -18933,7 +18913,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>299</v>
       </c>
@@ -18944,7 +18924,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>309</v>
       </c>
@@ -18955,7 +18935,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>381</v>
       </c>
@@ -18966,7 +18946,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>811</v>
       </c>
@@ -18977,7 +18957,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>634</v>
       </c>
@@ -18988,7 +18968,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>671</v>
       </c>
@@ -18999,7 +18979,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>295</v>
       </c>
@@ -19010,7 +18990,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>719</v>
       </c>
@@ -19021,7 +19001,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>631</v>
       </c>
@@ -19032,7 +19012,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>345</v>
       </c>
@@ -19043,7 +19023,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>326</v>
       </c>
@@ -19054,7 +19034,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>653</v>
       </c>
@@ -19065,7 +19045,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>1149</v>
       </c>
@@ -19076,7 +19056,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>695</v>
       </c>
@@ -19087,7 +19067,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>675</v>
       </c>
@@ -19098,7 +19078,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
         <v>310</v>
       </c>
@@ -19109,7 +19089,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>253</v>
       </c>
@@ -19120,7 +19100,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>812</v>
       </c>
@@ -19131,7 +19111,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>696</v>
       </c>
@@ -19142,7 +19122,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>709</v>
       </c>
@@ -19153,7 +19133,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>713</v>
       </c>
@@ -19164,7 +19144,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>286</v>
       </c>
@@ -19175,7 +19155,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>259</v>
       </c>
@@ -19186,7 +19166,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>1150</v>
       </c>
@@ -19197,7 +19177,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>656</v>
       </c>
@@ -19208,7 +19188,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>796</v>
       </c>
@@ -19219,7 +19199,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>761</v>
       </c>
@@ -19230,7 +19210,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>645</v>
       </c>
@@ -19241,7 +19221,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>662</v>
       </c>
@@ -19252,7 +19232,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>795</v>
       </c>
@@ -19263,7 +19243,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
         <v>636</v>
       </c>
@@ -19274,7 +19254,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
         <v>644</v>
       </c>
@@ -19285,7 +19265,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
         <v>784</v>
       </c>
@@ -19296,7 +19276,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>836</v>
       </c>
@@ -19307,7 +19287,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
         <v>327</v>
       </c>
@@ -19318,7 +19298,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
         <v>368</v>
       </c>
@@ -19329,7 +19309,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
         <v>765</v>
       </c>
@@ -19340,7 +19320,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
         <v>262</v>
       </c>
@@ -19351,7 +19331,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
         <v>869</v>
       </c>
@@ -19362,7 +19342,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>763</v>
       </c>
@@ -19373,7 +19353,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
         <v>382</v>
       </c>
@@ -19384,7 +19364,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
         <v>830</v>
       </c>
@@ -19395,7 +19375,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
         <v>1151</v>
       </c>
@@ -19406,7 +19386,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
         <v>296</v>
       </c>
@@ -19417,7 +19397,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
         <v>1152</v>
       </c>
@@ -19428,7 +19408,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
         <v>1153</v>
       </c>
@@ -19439,7 +19419,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>322</v>
       </c>
@@ -19450,7 +19430,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>788</v>
       </c>
@@ -19461,7 +19441,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>349</v>
       </c>
@@ -19472,7 +19452,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
         <v>339</v>
       </c>
@@ -19483,7 +19463,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>800</v>
       </c>
@@ -19494,7 +19474,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>392</v>
       </c>
@@ -19505,7 +19485,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>393</v>
       </c>
@@ -19516,7 +19496,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>304</v>
       </c>
@@ -19527,7 +19507,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>260</v>
       </c>
@@ -19538,7 +19518,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>293</v>
       </c>
@@ -19549,7 +19529,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>1154</v>
       </c>
@@ -19560,7 +19540,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>276</v>
       </c>
@@ -19571,7 +19551,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>290</v>
       </c>
@@ -19582,7 +19562,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>648</v>
       </c>
@@ -19593,7 +19573,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>660</v>
       </c>
@@ -19604,7 +19584,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>346</v>
       </c>
@@ -19615,7 +19595,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
         <v>254</v>
       </c>
@@ -19626,7 +19606,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>1155</v>
       </c>
@@ -19637,7 +19617,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>1156</v>
       </c>
@@ -19648,7 +19628,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>847</v>
       </c>
@@ -19659,7 +19639,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>255</v>
       </c>
@@ -19670,7 +19650,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>1157</v>
       </c>
@@ -19681,7 +19661,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>313</v>
       </c>
@@ -19692,7 +19672,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>837</v>
       </c>
@@ -19703,7 +19683,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>350</v>
       </c>
@@ -19714,7 +19694,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>291</v>
       </c>
@@ -19725,7 +19705,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>856</v>
       </c>
@@ -19736,7 +19716,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>677</v>
       </c>
@@ -19747,7 +19727,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>283</v>
       </c>
@@ -19758,7 +19738,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>785</v>
       </c>
@@ -19769,7 +19749,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>1158</v>
       </c>
@@ -19777,7 +19757,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>1159</v>
       </c>
@@ -19785,7 +19765,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
         <v>684</v>
       </c>
@@ -19796,7 +19776,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
         <v>870</v>
       </c>
@@ -19807,7 +19787,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
         <v>685</v>
       </c>
@@ -19818,7 +19798,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
         <v>843</v>
       </c>
@@ -19829,7 +19809,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
         <v>650</v>
       </c>
@@ -19840,7 +19820,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
         <v>775</v>
       </c>
@@ -19851,7 +19831,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
         <v>871</v>
       </c>
@@ -19862,7 +19842,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
         <v>651</v>
       </c>
@@ -19873,7 +19853,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
         <v>776</v>
       </c>
@@ -19884,7 +19864,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
         <v>777</v>
       </c>
@@ -19895,7 +19875,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
         <v>803</v>
       </c>
@@ -19906,7 +19886,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
         <v>686</v>
       </c>
@@ -19917,7 +19897,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
         <v>872</v>
       </c>
@@ -19928,7 +19908,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
         <v>804</v>
       </c>
@@ -19939,7 +19919,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
         <v>778</v>
       </c>
@@ -19950,7 +19930,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
         <v>841</v>
       </c>
@@ -19961,7 +19941,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
         <v>842</v>
       </c>
@@ -19972,7 +19952,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
         <v>873</v>
       </c>
@@ -19983,7 +19963,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
         <v>687</v>
       </c>
@@ -19994,7 +19974,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
         <v>840</v>
       </c>
@@ -20005,7 +19985,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
         <v>652</v>
       </c>
@@ -20016,7 +19996,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
         <v>779</v>
       </c>
@@ -20027,7 +20007,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
         <v>805</v>
       </c>
@@ -20038,7 +20018,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
         <v>806</v>
       </c>
@@ -20049,7 +20029,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
         <v>738</v>
       </c>
@@ -20060,7 +20040,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3">
       <c r="A362" t="s">
         <v>745</v>
       </c>
@@ -20071,7 +20051,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3">
       <c r="A363" t="s">
         <v>725</v>
       </c>
@@ -20082,7 +20062,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3">
       <c r="A364" t="s">
         <v>741</v>
       </c>
@@ -20093,7 +20073,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3">
       <c r="A365" t="s">
         <v>756</v>
       </c>
@@ -20104,7 +20084,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3">
       <c r="A366" t="s">
         <v>726</v>
       </c>
@@ -20115,7 +20095,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3">
       <c r="A367" t="s">
         <v>727</v>
       </c>
@@ -20126,7 +20106,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3">
       <c r="A368" t="s">
         <v>747</v>
       </c>
@@ -20137,7 +20117,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
         <v>729</v>
       </c>
@@ -20148,7 +20128,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
         <v>736</v>
       </c>
@@ -20159,7 +20139,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
         <v>743</v>
       </c>
@@ -20170,7 +20150,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
         <v>730</v>
       </c>
@@ -20181,7 +20161,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
         <v>754</v>
       </c>
@@ -20192,7 +20172,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
         <v>750</v>
       </c>
@@ -20203,7 +20183,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:3">
       <c r="A375" t="s">
         <v>732</v>
       </c>
@@ -20214,7 +20194,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3">
       <c r="A376" t="s">
         <v>737</v>
       </c>
@@ -20225,7 +20205,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
         <v>733</v>
       </c>
@@ -20236,7 +20216,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
         <v>751</v>
       </c>
@@ -20247,7 +20227,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
         <v>752</v>
       </c>
@@ -20258,7 +20238,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
         <v>748</v>
       </c>
@@ -20269,7 +20249,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
         <v>753</v>
       </c>
@@ -20280,7 +20260,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
         <v>746</v>
       </c>
@@ -20291,7 +20271,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3">
       <c r="A383" t="s">
         <v>740</v>
       </c>
@@ -20302,7 +20282,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3">
       <c r="A384" t="s">
         <v>739</v>
       </c>
@@ -20313,7 +20293,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3">
       <c r="A385" t="s">
         <v>744</v>
       </c>
@@ -20324,7 +20304,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3">
       <c r="A386" t="s">
         <v>735</v>
       </c>
@@ -20335,7 +20315,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:3">
       <c r="A387" t="s">
         <v>749</v>
       </c>
@@ -20346,7 +20326,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3">
       <c r="A388" t="s">
         <v>742</v>
       </c>
@@ -20357,7 +20337,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3">
       <c r="A389" t="s">
         <v>374</v>
       </c>
@@ -20368,7 +20348,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3">
       <c r="A390" t="s">
         <v>755</v>
       </c>
@@ -20379,7 +20359,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3">
       <c r="A391" t="s">
         <v>734</v>
       </c>
@@ -20390,7 +20370,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3">
       <c r="A394" t="s">
         <v>700</v>
       </c>
@@ -20401,7 +20381,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3">
       <c r="A399" t="s">
         <v>817</v>
       </c>
@@ -20412,7 +20392,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3">
       <c r="A400" t="s">
         <v>641</v>
       </c>
@@ -20423,7 +20403,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:3">
       <c r="A401" t="s">
         <v>720</v>
       </c>
@@ -20434,7 +20414,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:3">
       <c r="A402" t="s">
         <v>674</v>
       </c>
@@ -20445,7 +20425,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3">
       <c r="A403" t="s">
         <v>691</v>
       </c>
@@ -20456,7 +20436,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3">
       <c r="A404" t="s">
         <v>258</v>
       </c>
@@ -20467,7 +20447,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3">
       <c r="A405" t="s">
         <v>1160</v>
       </c>
@@ -20478,7 +20458,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3">
       <c r="A408" t="s">
         <v>1161</v>
       </c>
@@ -20489,7 +20469,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3">
       <c r="A409" t="s">
         <v>1162</v>
       </c>
@@ -20500,7 +20480,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3">
       <c r="A410" t="s">
         <v>1163</v>
       </c>
@@ -20511,7 +20491,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3">
       <c r="A411" t="s">
         <v>1164</v>
       </c>
@@ -20522,7 +20502,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3">
       <c r="A412" t="s">
         <v>1165</v>
       </c>
@@ -20533,7 +20513,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3">
       <c r="A413" t="s">
         <v>1166</v>
       </c>
@@ -20544,7 +20524,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3">
       <c r="A414" t="s">
         <v>1167</v>
       </c>
@@ -20555,7 +20535,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3">
       <c r="A415" t="s">
         <v>1168</v>
       </c>
@@ -20566,7 +20546,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3">
       <c r="A416" t="s">
         <v>1169</v>
       </c>
@@ -20577,7 +20557,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3">
       <c r="A417" t="s">
         <v>1170</v>
       </c>
@@ -20588,7 +20568,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:3">
       <c r="A418" t="s">
         <v>1171</v>
       </c>
@@ -20599,7 +20579,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3">
       <c r="A419" t="s">
         <v>1172</v>
       </c>
@@ -20610,7 +20590,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3">
       <c r="A420" t="s">
         <v>1173</v>
       </c>
@@ -20621,7 +20601,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3">
       <c r="A421" t="s">
         <v>1174</v>
       </c>
@@ -20632,7 +20612,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3">
       <c r="A422" t="s">
         <v>1175</v>
       </c>
@@ -20643,7 +20623,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3">
       <c r="A423" t="s">
         <v>1176</v>
       </c>
@@ -20654,7 +20634,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3">
       <c r="A424" t="s">
         <v>1177</v>
       </c>
@@ -20665,7 +20645,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:3">
       <c r="A425" t="s">
         <v>1178</v>
       </c>
@@ -20676,7 +20656,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3">
       <c r="A426" t="s">
         <v>1179</v>
       </c>
@@ -20687,7 +20667,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3">
       <c r="A427" t="s">
         <v>1180</v>
       </c>
@@ -20698,7 +20678,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3">
       <c r="A428" t="s">
         <v>1181</v>
       </c>
@@ -20709,7 +20689,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:3">
       <c r="A429" t="s">
         <v>1182</v>
       </c>
@@ -20720,7 +20700,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3">
       <c r="A430" t="s">
         <v>1183</v>
       </c>
@@ -20731,7 +20711,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3">
       <c r="A431" t="s">
         <v>1184</v>
       </c>
@@ -20742,7 +20722,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3">
       <c r="A432" t="s">
         <v>1185</v>
       </c>
@@ -20753,7 +20733,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3">
       <c r="A433" t="s">
         <v>1186</v>
       </c>
@@ -20764,7 +20744,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3">
       <c r="A434" t="s">
         <v>1187</v>
       </c>
@@ -20775,7 +20755,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3">
       <c r="A435" t="s">
         <v>787</v>
       </c>
@@ -20786,7 +20766,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3">
       <c r="A436" t="s">
         <v>1188</v>
       </c>
@@ -20797,7 +20777,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:3">
       <c r="A437" t="s">
         <v>1189</v>
       </c>
@@ -20808,7 +20788,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3">
       <c r="A438" t="s">
         <v>1190</v>
       </c>
@@ -20819,7 +20799,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3">
       <c r="A439" t="s">
         <v>1191</v>
       </c>
@@ -20830,7 +20810,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3">
       <c r="A440" t="s">
         <v>1192</v>
       </c>
@@ -20841,7 +20821,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3">
       <c r="A441" t="s">
         <v>1193</v>
       </c>
@@ -20852,7 +20832,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3">
       <c r="A442" t="s">
         <v>1194</v>
       </c>
@@ -20863,7 +20843,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:3">
       <c r="A443" t="s">
         <v>1195</v>
       </c>
@@ -20874,7 +20854,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3">
       <c r="A444" t="s">
         <v>1196</v>
       </c>
@@ -20885,7 +20865,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3">
       <c r="A445" t="s">
         <v>1197</v>
       </c>
@@ -20896,7 +20876,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3">
       <c r="A446" t="s">
         <v>1198</v>
       </c>
@@ -20907,7 +20887,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:3">
       <c r="A447" t="s">
         <v>1199</v>
       </c>
@@ -20918,7 +20898,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:3">
       <c r="A448" t="s">
         <v>1200</v>
       </c>
@@ -20929,7 +20909,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:3">
       <c r="A449" t="s">
         <v>1201</v>
       </c>
@@ -20940,7 +20920,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3">
       <c r="A450" t="s">
         <v>673</v>
       </c>
@@ -20957,14 +20937,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
@@ -20987,7 +20967,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1289</v>
       </c>
@@ -21010,7 +20990,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1290</v>
       </c>
@@ -21033,7 +21013,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>1291</v>
       </c>
@@ -21056,7 +21036,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>1292</v>
       </c>
@@ -21079,7 +21059,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>1293</v>
       </c>
@@ -21102,7 +21082,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>1294</v>
       </c>
@@ -21125,7 +21105,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>1295</v>
       </c>
@@ -21148,7 +21128,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>1296</v>
       </c>
@@ -21171,7 +21151,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>1297</v>
       </c>
@@ -21194,7 +21174,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>1298</v>
       </c>
@@ -21217,7 +21197,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>1299</v>
       </c>
@@ -21240,7 +21220,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>1300</v>
       </c>
@@ -21263,7 +21243,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>1301</v>
       </c>
@@ -21286,7 +21266,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>1302</v>
       </c>
@@ -21309,7 +21289,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>1303</v>
       </c>
@@ -21338,14 +21318,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21377,7 +21357,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>45370</v>
       </c>
@@ -21400,7 +21380,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>45370</v>
       </c>
@@ -21426,7 +21406,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>45371</v>
       </c>

--- a/data/eacl_2024/new_data/inputs.xlsx
+++ b/data/eacl_2024/new_data/inputs.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="1340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4169" uniqueCount="1344">
   <si>
     <t>Date</t>
   </si>
@@ -4014,6 +4014,9 @@
     <t>11:00 - 12:30</t>
   </si>
   <si>
+    <t>10:30 - 12:00</t>
+  </si>
+  <si>
     <t>Affinity Group Meeting 1</t>
   </si>
   <si>
@@ -4023,6 +4026,9 @@
     <t>Affinity Group Meeting 3</t>
   </si>
   <si>
+    <t>Birds of a Feather 1</t>
+  </si>
+  <si>
     <t>AGM-1</t>
   </si>
   <si>
@@ -4032,6 +4038,9 @@
     <t>AGM-3</t>
   </si>
   <si>
+    <t>BoF-1</t>
+  </si>
+  <si>
     <t>Masakhane/Black in AI/North Africans in NLP</t>
   </si>
   <si>
@@ -4039,6 +4048,9 @@
   </si>
   <si>
     <t>Latin X in AI</t>
+  </si>
+  <si>
+    <t>NLP in Healthcare (Especially Mental Health)</t>
   </si>
   <si>
     <t>Anne Lauscher</t>
@@ -21319,7 +21331,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21371,13 +21383,13 @@
         <v>1327</v>
       </c>
       <c r="F2" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="G2" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="H2" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -21394,16 +21406,16 @@
         <v>1328</v>
       </c>
       <c r="F3" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="G3" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="H3" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
       <c r="I3" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -21420,13 +21432,36 @@
         <v>1329</v>
       </c>
       <c r="F4" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="G4" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="H4" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2">
+        <v>45370</v>
+      </c>
+      <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G5" t="s">
         <v>1338</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1342</v>
       </c>
     </row>
   </sheetData>
